--- a/DeliverablePart2 A.xlsx
+++ b/DeliverablePart2 A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/crdenney_purdue_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="8_{507DFCE5-EF17-48C1-9CA1-6261BE2CA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07CDC841-7160-4D7B-9E8B-BC27E7FDF95B}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="8_{507DFCE5-EF17-48C1-9CA1-6261BE2CA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D77DAF7-BC91-42A9-BA15-D16230D02307}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5EDCD2A2-706E-4599-92F5-14E625CA5D53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
   <si>
     <t>Control ID</t>
   </si>
@@ -336,6 +336,51 @@
   </si>
   <si>
     <t>Test results, Training documentation</t>
+  </si>
+  <si>
+    <t>Version 1.2</t>
+  </si>
+  <si>
+    <t>AD - 006</t>
+  </si>
+  <si>
+    <t>Daily backup health check</t>
+  </si>
+  <si>
+    <t>NET-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment of honeypots </t>
+  </si>
+  <si>
+    <t>DE.CM-01</t>
+  </si>
+  <si>
+    <t>A.8.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 8.16 </t>
+  </si>
+  <si>
+    <t>164.308 (a)(6)(ii)</t>
+  </si>
+  <si>
+    <t>164.308(a)(ii)(7)</t>
+  </si>
+  <si>
+    <t>A3.5.1</t>
+  </si>
+  <si>
+    <t>9.4.1.2</t>
+  </si>
+  <si>
+    <t>Test results, report</t>
+  </si>
+  <si>
+    <t>Test restuls, configuration</t>
+  </si>
+  <si>
+    <t>Fully Covered</t>
   </si>
 </sst>
 </file>
@@ -386,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -395,6 +440,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,6 +459,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0164B61A-75A3-4693-BD32-235E3849EB4A}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="46" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="72" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -873,7 +925,7 @@
         <v>92</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J3:J16" si="0">((COUNTIF(C4:F4, "&lt;&gt;"&amp;"Unknown") + IF(G4="Fully covered", 1, IF(G4="Partially covered", 0.5, 0)))/ 5) * 100</f>
+        <f t="shared" ref="J4:J16" si="0">((COUNTIF(C4:F4, "&lt;&gt;"&amp;"Unknown") + IF(G4="Fully covered", 1, IF(G4="Partially covered", 0.5, 0)))/ 5) * 100</f>
         <v>80</v>
       </c>
     </row>
@@ -1237,6 +1289,71 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18">
+        <f>((COUNTIF(C18:F18, "&lt;&gt;"&amp;"Unknown") + IF(G18="Fully covered", 1, IF(G18="Partially covered", 0.5, 0)))/ 5) * 100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19">
+        <f>((COUNTIF(C19:F19, "&lt;&gt;"&amp;"Unknown") + IF(G19="Fully covered", 1, IF(G19="Partially covered", 0.5, 0)))/ 5) * 100</f>
         <v>100</v>
       </c>
     </row>
@@ -1271,6 +1388,10 @@
     <hyperlink ref="E12" r:id="rId26" xr:uid="{CC90E20A-B7A9-468F-80F3-75BB14921C48}"/>
     <hyperlink ref="E14" r:id="rId27" xr:uid="{AC02C3FE-6BF6-420F-8D5B-41295C5FDDC7}"/>
     <hyperlink ref="E16" r:id="rId28" xr:uid="{2A02CC45-BA74-4C9F-852E-4B93C8EE5C43}"/>
+    <hyperlink ref="D18" r:id="rId29" xr:uid="{1016D436-474F-49D2-99F3-4EA99D4278C8}"/>
+    <hyperlink ref="D19" r:id="rId30" xr:uid="{C2B72C82-018E-404F-B710-5D035FAD0E44}"/>
+    <hyperlink ref="E19" r:id="rId31" xr:uid="{72E9DAB6-EC66-4490-BA8B-46B0AB62CC57}"/>
+    <hyperlink ref="E18" r:id="rId32" xr:uid="{B82C801A-DC3A-453E-87BF-F868D137D05D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DeliverablePart2 A.xlsx
+++ b/DeliverablePart2 A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/crdenney_purdue_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="8_{507DFCE5-EF17-48C1-9CA1-6261BE2CA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D77DAF7-BC91-42A9-BA15-D16230D02307}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="8_{507DFCE5-EF17-48C1-9CA1-6261BE2CA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EB16143-E105-4233-BFFE-46CE1F64099B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5EDCD2A2-706E-4599-92F5-14E625CA5D53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
   <si>
     <t>Control ID</t>
   </si>
@@ -381,6 +381,33 @@
   </si>
   <si>
     <t>Fully Covered</t>
+  </si>
+  <si>
+    <t>Version 1.3</t>
+  </si>
+  <si>
+    <t>IAW-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designated admin workstation </t>
+  </si>
+  <si>
+    <t>AD – 007</t>
+  </si>
+  <si>
+    <t>Review of PowerShell change logs</t>
+  </si>
+  <si>
+    <t>PR.IR-0</t>
+  </si>
+  <si>
+    <t>A 5.15</t>
+  </si>
+  <si>
+    <t>A 8.16</t>
+  </si>
+  <si>
+    <t>164.308(a)(4)(ii)(b)</t>
   </si>
 </sst>
 </file>
@@ -782,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0164B61A-75A3-4693-BD32-235E3849EB4A}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="72" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="72" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1354,6 +1381,68 @@
       </c>
       <c r="J19">
         <f>((COUNTIF(C19:F19, "&lt;&gt;"&amp;"Unknown") + IF(G19="Fully covered", 1, IF(G19="Partially covered", 0.5, 0)))/ 5) * 100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J22" si="1">((COUNTIF(C21:F21, "&lt;&gt;"&amp;"Unknown") + IF(G21="Fully covered", 1, IF(G21="Partially covered", 0.5, 0)))/ 5) * 100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1392,6 +1481,8 @@
     <hyperlink ref="D19" r:id="rId30" xr:uid="{C2B72C82-018E-404F-B710-5D035FAD0E44}"/>
     <hyperlink ref="E19" r:id="rId31" xr:uid="{72E9DAB6-EC66-4490-BA8B-46B0AB62CC57}"/>
     <hyperlink ref="E18" r:id="rId32" xr:uid="{B82C801A-DC3A-453E-87BF-F868D137D05D}"/>
+    <hyperlink ref="D21" r:id="rId33" xr:uid="{4FB63F1B-2DE9-4653-BFA8-CEC3DFE01832}"/>
+    <hyperlink ref="D22" r:id="rId34" xr:uid="{A2F67897-1933-4119-ABF3-991879B6573D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DeliverablePart2 A.xlsx
+++ b/DeliverablePart2 A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/crdenney_purdue_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="8_{507DFCE5-EF17-48C1-9CA1-6261BE2CA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EB16143-E105-4233-BFFE-46CE1F64099B}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="8_{507DFCE5-EF17-48C1-9CA1-6261BE2CA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D004DDC-20EA-4E1B-B463-D79B326F2BAA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5EDCD2A2-706E-4599-92F5-14E625CA5D53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
   <si>
     <t>Control ID</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Web application hardening and patch management</t>
   </si>
   <si>
-    <t>NET-001</t>
-  </si>
-  <si>
-    <t>Segmentation of Endpoint and Medical Devices</t>
-  </si>
-  <si>
     <t>BACKRec-001</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>PR.PS-03</t>
   </si>
   <si>
-    <t>PR.IR-01</t>
-  </si>
-  <si>
     <t>PR.DS-11</t>
   </si>
   <si>
@@ -197,9 +188,6 @@
     <t>Annex A 8.8</t>
   </si>
   <si>
-    <t>Annex A 8.22</t>
-  </si>
-  <si>
     <t>Annex A 8.13</t>
   </si>
   <si>
@@ -284,12 +272,6 @@
     <t>Fully covered</t>
   </si>
   <si>
-    <t xml:space="preserve">Fully covered </t>
-  </si>
-  <si>
-    <t>CDE segmentation is covered in system map</t>
-  </si>
-  <si>
     <t>10.3.2</t>
   </si>
   <si>
@@ -300,9 +282,6 @@
   </si>
   <si>
     <t>10.4.1</t>
-  </si>
-  <si>
-    <t>Unkown</t>
   </si>
   <si>
     <t xml:space="preserve">Unknown </t>
@@ -809,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0164B61A-75A3-4693-BD32-235E3849EB4A}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="72" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:J22"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -868,22 +847,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <f>((COUNTIF(C2:F2, "&lt;&gt;"&amp;"Unknown") + IF(G2="Fully covered", 1, IF(G2="Partially covered", 0.5, 0)))/ 5) * 100</f>
@@ -898,32 +877,32 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J3">
         <f>((COUNTIF(C3:F3, "&lt;&gt;"&amp;"Unknown") + IF(G3="Fully covered", 1, IF(G3="Partially covered", 0.5, 0)))/ 5) * 100</f>
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -931,32 +910,32 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J16" si="0">((COUNTIF(C4:F4, "&lt;&gt;"&amp;"Unknown") + IF(G4="Fully covered", 1, IF(G4="Partially covered", 0.5, 0)))/ 5) * 100</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+        <f t="shared" ref="J4:J15" si="0">((COUNTIF(C4:F4, "&lt;&gt;"&amp;"Unknown") + IF(G4="Fully covered", 1, IF(G4="Partially covered", 0.5, 0)))/ 5) * 100</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -964,29 +943,26 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="F5">
+        <v>8.4</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -997,22 +973,22 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6">
-        <v>8.4</v>
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -1021,28 +997,28 @@
     </row>
     <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
@@ -1051,28 +1027,28 @@
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
@@ -1087,22 +1063,22 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
@@ -1117,22 +1093,22 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10">
         <v>9.3000000000000007</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
@@ -1147,22 +1123,22 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11">
-        <v>9.3000000000000007</v>
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
@@ -1177,26 +1153,26 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>72</v>
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -1207,29 +1183,29 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>12.2</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1237,52 +1213,52 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="F14">
-        <v>12.2</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15">
-        <v>9.3000000000000007</v>
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
@@ -1291,63 +1267,63 @@
     </row>
     <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17">
+        <f>((COUNTIF(C17:F17, "&lt;&gt;"&amp;"Unknown") + IF(G17="Fully covered", 1, IF(G17="Partially covered", 0.5, 0)))/ 5) * 100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="J18">
         <f>((COUNTIF(C18:F18, "&lt;&gt;"&amp;"Unknown") + IF(G18="Fully covered", 1, IF(G18="Partially covered", 0.5, 0)))/ 5) * 100</f>
@@ -1356,92 +1332,62 @@
     </row>
     <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19">
-        <f>((COUNTIF(C19:F19, "&lt;&gt;"&amp;"Unknown") + IF(G19="Fully covered", 1, IF(G19="Partially covered", 0.5, 0)))/ 5) * 100</f>
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:J21" si="1">((COUNTIF(C20:F20, "&lt;&gt;"&amp;"Unknown") + IF(G20="Fully covered", 1, IF(G20="Partially covered", 0.5, 0)))/ 5) * 100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21:J22" si="1">((COUNTIF(C21:F21, "&lt;&gt;"&amp;"Unknown") + IF(G21="Fully covered", 1, IF(G21="Partially covered", 0.5, 0)))/ 5) * 100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -1449,40 +1395,38 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" display="https://www.isms.online/iso-27001/annex-a-2022/5-3-segregation-of-duties-2022/" xr:uid="{ABC1C2E5-D65E-444F-9A57-202D5C22EDE5}"/>
+    <hyperlink ref="D6" r:id="rId1" display="https://www.isms.online/iso-27001/annex-a-2022/5-3-segregation-of-duties-2022/" xr:uid="{ABC1C2E5-D65E-444F-9A57-202D5C22EDE5}"/>
     <hyperlink ref="D2" r:id="rId2" display="https://www.isms.online/iso-27001/annex-a/8-8-management-of-technical-vulnerabilities-2022/" xr:uid="{7A146CF9-4633-43A9-A12C-A34A600A0846}"/>
     <hyperlink ref="D3" r:id="rId3" display="https://www.isms.online/iso-27001/annex-a/8-8-management-of-technical-vulnerabilities-2022/" xr:uid="{06295B12-6F32-4D14-B81A-BCC9D9C345EF}"/>
-    <hyperlink ref="D4" r:id="rId4" display="https://www.isms.online/iso-27001/annex-a/8-22-segregation-of-networks-2022/" xr:uid="{3DF11E60-74D3-4D42-B8C1-3A54E1A35209}"/>
-    <hyperlink ref="D5" r:id="rId5" display="https://www.isms.online/iso-27001/annex-a/8-13-information-backup-2022/" xr:uid="{52A03698-0D8F-48A9-BD29-E1CB6D137913}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{60911AE0-355A-430E-9058-66A24DF69DF4}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{37876F1D-4CFB-42F3-838F-28198C1A1509}"/>
-    <hyperlink ref="D12" r:id="rId8" display="https://www.isms.online/iso-27001/annex-a-2022/5-5-contact-with-government-authorities-2022/" xr:uid="{9877A030-5B9D-4409-BAA9-1F74A8D35181}"/>
-    <hyperlink ref="D9" r:id="rId9" display="https://www.isms.online/iso-27001/annex-a/8-16-monitoring-activities-2022/" xr:uid="{B5342831-B2AB-4351-885A-57B54FFCBD14}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{D4B02062-D0D0-4827-8B24-AC0643E27328}"/>
-    <hyperlink ref="D16" r:id="rId11" display="https://www.isms.online/iso-27001/annex-a/6-3-information-security-awareness-education-training-2022/" xr:uid="{72D604FC-2985-488F-9E9B-50FB74F8A345}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{BF43773A-2981-40F8-8258-7ED92FFA733D}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{0EB7EF0A-E595-4856-AF99-685436A82BA1}"/>
-    <hyperlink ref="D11" r:id="rId14" display="https://www.isms.online/iso-27001/annex-a/7-2-physical-entry-2022/" xr:uid="{3B6DE728-3D0C-467F-BB97-F8EA40BFD86A}"/>
-    <hyperlink ref="E2" r:id="rId15" xr:uid="{DFB88E0E-7E3A-4D4C-AD36-C5690B58B28D}"/>
-    <hyperlink ref="E3" r:id="rId16" xr:uid="{B98D7C46-4596-442A-9F25-579D08BB41BF}"/>
-    <hyperlink ref="E4" r:id="rId17" xr:uid="{7A8D2625-8BD6-4D2A-AFC6-355A1C15AD0C}"/>
-    <hyperlink ref="E5" r:id="rId18" xr:uid="{3B89C878-2C18-4DD5-9289-EE863E3166BF}"/>
-    <hyperlink ref="E6" r:id="rId19" xr:uid="{C66392FD-988C-4003-A714-7B99489C01DE}"/>
-    <hyperlink ref="E15" r:id="rId20" xr:uid="{C9E3F4A0-A0E0-4CF3-8024-728E719EBC94}"/>
-    <hyperlink ref="E7" r:id="rId21" display="164.308 (1) (ii)(a)" xr:uid="{4ADEC821-8C76-4080-9E79-CA754917CCED}"/>
-    <hyperlink ref="E8" r:id="rId22" display="164.312(e)(2)(iv)" xr:uid="{1384B5B4-EA29-4D56-92A7-703BE640D4A4}"/>
-    <hyperlink ref="E9" r:id="rId23" xr:uid="{A05FFDE0-4C43-4672-AE76-D6A18AA32E12}"/>
-    <hyperlink ref="E10" r:id="rId24" xr:uid="{5156A4EE-93D0-4610-9C20-114D0D83DD89}"/>
-    <hyperlink ref="E11" r:id="rId25" xr:uid="{958D8CFF-D8FC-4C5A-A8D7-34CB67A445B5}"/>
-    <hyperlink ref="E12" r:id="rId26" xr:uid="{CC90E20A-B7A9-468F-80F3-75BB14921C48}"/>
-    <hyperlink ref="E14" r:id="rId27" xr:uid="{AC02C3FE-6BF6-420F-8D5B-41295C5FDDC7}"/>
-    <hyperlink ref="E16" r:id="rId28" xr:uid="{2A02CC45-BA74-4C9F-852E-4B93C8EE5C43}"/>
-    <hyperlink ref="D18" r:id="rId29" xr:uid="{1016D436-474F-49D2-99F3-4EA99D4278C8}"/>
-    <hyperlink ref="D19" r:id="rId30" xr:uid="{C2B72C82-018E-404F-B710-5D035FAD0E44}"/>
-    <hyperlink ref="E19" r:id="rId31" xr:uid="{72E9DAB6-EC66-4490-BA8B-46B0AB62CC57}"/>
-    <hyperlink ref="E18" r:id="rId32" xr:uid="{B82C801A-DC3A-453E-87BF-F868D137D05D}"/>
-    <hyperlink ref="D21" r:id="rId33" xr:uid="{4FB63F1B-2DE9-4653-BFA8-CEC3DFE01832}"/>
-    <hyperlink ref="D22" r:id="rId34" xr:uid="{A2F67897-1933-4119-ABF3-991879B6573D}"/>
+    <hyperlink ref="D4" r:id="rId4" display="https://www.isms.online/iso-27001/annex-a/8-13-information-backup-2022/" xr:uid="{52A03698-0D8F-48A9-BD29-E1CB6D137913}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{60911AE0-355A-430E-9058-66A24DF69DF4}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{37876F1D-4CFB-42F3-838F-28198C1A1509}"/>
+    <hyperlink ref="D11" r:id="rId7" display="https://www.isms.online/iso-27001/annex-a-2022/5-5-contact-with-government-authorities-2022/" xr:uid="{9877A030-5B9D-4409-BAA9-1F74A8D35181}"/>
+    <hyperlink ref="D8" r:id="rId8" display="https://www.isms.online/iso-27001/annex-a/8-16-monitoring-activities-2022/" xr:uid="{B5342831-B2AB-4351-885A-57B54FFCBD14}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{D4B02062-D0D0-4827-8B24-AC0643E27328}"/>
+    <hyperlink ref="D15" r:id="rId10" display="https://www.isms.online/iso-27001/annex-a/6-3-information-security-awareness-education-training-2022/" xr:uid="{72D604FC-2985-488F-9E9B-50FB74F8A345}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{BF43773A-2981-40F8-8258-7ED92FFA733D}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{0EB7EF0A-E595-4856-AF99-685436A82BA1}"/>
+    <hyperlink ref="D10" r:id="rId13" display="https://www.isms.online/iso-27001/annex-a/7-2-physical-entry-2022/" xr:uid="{3B6DE728-3D0C-467F-BB97-F8EA40BFD86A}"/>
+    <hyperlink ref="E2" r:id="rId14" xr:uid="{DFB88E0E-7E3A-4D4C-AD36-C5690B58B28D}"/>
+    <hyperlink ref="E3" r:id="rId15" xr:uid="{B98D7C46-4596-442A-9F25-579D08BB41BF}"/>
+    <hyperlink ref="E4" r:id="rId16" xr:uid="{3B89C878-2C18-4DD5-9289-EE863E3166BF}"/>
+    <hyperlink ref="E5" r:id="rId17" xr:uid="{C66392FD-988C-4003-A714-7B99489C01DE}"/>
+    <hyperlink ref="E14" r:id="rId18" xr:uid="{C9E3F4A0-A0E0-4CF3-8024-728E719EBC94}"/>
+    <hyperlink ref="E6" r:id="rId19" display="164.308 (1) (ii)(a)" xr:uid="{4ADEC821-8C76-4080-9E79-CA754917CCED}"/>
+    <hyperlink ref="E7" r:id="rId20" display="164.312(e)(2)(iv)" xr:uid="{1384B5B4-EA29-4D56-92A7-703BE640D4A4}"/>
+    <hyperlink ref="E8" r:id="rId21" xr:uid="{A05FFDE0-4C43-4672-AE76-D6A18AA32E12}"/>
+    <hyperlink ref="E9" r:id="rId22" xr:uid="{5156A4EE-93D0-4610-9C20-114D0D83DD89}"/>
+    <hyperlink ref="E10" r:id="rId23" xr:uid="{958D8CFF-D8FC-4C5A-A8D7-34CB67A445B5}"/>
+    <hyperlink ref="E11" r:id="rId24" xr:uid="{CC90E20A-B7A9-468F-80F3-75BB14921C48}"/>
+    <hyperlink ref="E13" r:id="rId25" xr:uid="{AC02C3FE-6BF6-420F-8D5B-41295C5FDDC7}"/>
+    <hyperlink ref="E15" r:id="rId26" xr:uid="{2A02CC45-BA74-4C9F-852E-4B93C8EE5C43}"/>
+    <hyperlink ref="D17" r:id="rId27" xr:uid="{1016D436-474F-49D2-99F3-4EA99D4278C8}"/>
+    <hyperlink ref="D18" r:id="rId28" xr:uid="{C2B72C82-018E-404F-B710-5D035FAD0E44}"/>
+    <hyperlink ref="E18" r:id="rId29" xr:uid="{72E9DAB6-EC66-4490-BA8B-46B0AB62CC57}"/>
+    <hyperlink ref="E17" r:id="rId30" xr:uid="{B82C801A-DC3A-453E-87BF-F868D137D05D}"/>
+    <hyperlink ref="D20" r:id="rId31" xr:uid="{4FB63F1B-2DE9-4653-BFA8-CEC3DFE01832}"/>
+    <hyperlink ref="D21" r:id="rId32" xr:uid="{A2F67897-1933-4119-ABF3-991879B6573D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DeliverablePart2 A.xlsx
+++ b/DeliverablePart2 A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/crdenney_purdue_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="8_{507DFCE5-EF17-48C1-9CA1-6261BE2CA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D004DDC-20EA-4E1B-B463-D79B326F2BAA}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="8_{507DFCE5-EF17-48C1-9CA1-6261BE2CA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E24F53-C504-45FE-B00E-9DA9C8A70AB4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5EDCD2A2-706E-4599-92F5-14E625CA5D53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="129">
   <si>
     <t>Control ID</t>
   </si>
@@ -347,9 +347,6 @@
     <t>164.308(a)(ii)(7)</t>
   </si>
   <si>
-    <t>A3.5.1</t>
-  </si>
-  <si>
     <t>9.4.1.2</t>
   </si>
   <si>
@@ -387,6 +384,51 @@
   </si>
   <si>
     <t>164.308(a)(4)(ii)(b)</t>
+  </si>
+  <si>
+    <t>V 1.7 Contorls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRED-001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandatory default credential changes on all devices and associated software </t>
+  </si>
+  <si>
+    <t>While most frameworks require an asset inventory most do not specify an EOL register</t>
+  </si>
+  <si>
+    <t>PR.AA-01</t>
+  </si>
+  <si>
+    <t>A 8.2</t>
+  </si>
+  <si>
+    <t>164.308(a)(5(ii)(d)</t>
+  </si>
+  <si>
+    <t>3.5.1</t>
+  </si>
+  <si>
+    <t>10.7.1</t>
+  </si>
+  <si>
+    <t>8.3.6</t>
+  </si>
+  <si>
+    <t>test results, configuration changes</t>
+  </si>
+  <si>
+    <t>Test results, configuration</t>
+  </si>
+  <si>
+    <t>Test results, Configuration documentation, Patch version</t>
+  </si>
+  <si>
+    <t>Test results, Configuration documentation, List of removed protocols</t>
+  </si>
+  <si>
+    <t>Test results, Configuration documentation, backup checks</t>
   </si>
 </sst>
 </file>
@@ -788,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0164B61A-75A3-4693-BD32-235E3849EB4A}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="72" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -862,7 +904,7 @@
         <v>75</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="J2">
         <f>((COUNTIF(C2:F2, "&lt;&gt;"&amp;"Unknown") + IF(G2="Fully covered", 1, IF(G2="Partially covered", 0.5, 0)))/ 5) * 100</f>
@@ -895,7 +937,7 @@
         <v>84</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <f>((COUNTIF(C3:F3, "&lt;&gt;"&amp;"Unknown") + IF(G3="Fully covered", 1, IF(G3="Partially covered", 0.5, 0)))/ 5) * 100</f>
@@ -928,7 +970,7 @@
         <v>83</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J15" si="0">((COUNTIF(C4:F4, "&lt;&gt;"&amp;"Unknown") + IF(G4="Fully covered", 1, IF(G4="Partially covered", 0.5, 0)))/ 5) * 100</f>
@@ -1145,7 +1187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1166,6 +1208,9 @@
       </c>
       <c r="G12" t="s">
         <v>75</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>88</v>
@@ -1205,7 +1250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1287,13 +1332,13 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="J17">
         <f>((COUNTIF(C17:F17, "&lt;&gt;"&amp;"Unknown") + IF(G17="Fully covered", 1, IF(G17="Partially covered", 0.5, 0)))/ 5) * 100</f>
@@ -1317,13 +1362,13 @@
         <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J18">
         <f>((COUNTIF(C18:F18, "&lt;&gt;"&amp;"Unknown") + IF(G18="Fully covered", 1, IF(G18="Partially covered", 0.5, 0)))/ 5) * 100</f>
@@ -1332,62 +1377,100 @@
     </row>
     <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="B20" t="s">
-        <v>108</v>
-      </c>
       <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="F20" t="s">
+        <v>122</v>
       </c>
       <c r="G20" t="s">
         <v>75</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20:J21" si="1">((COUNTIF(C20:F20, "&lt;&gt;"&amp;"Unknown") + IF(G20="Fully covered", 1, IF(G20="Partially covered", 0.5, 0)))/ 5) * 100</f>
+        <f t="shared" ref="J20:J23" si="1">((COUNTIF(C20:F20, "&lt;&gt;"&amp;"Unknown") + IF(G20="Fully covered", 1, IF(G20="Partially covered", 0.5, 0)))/ 5) * 100</f>
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
         <v>109</v>
-      </c>
-      <c r="B21" t="s">
-        <v>110</v>
       </c>
       <c r="C21" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
         <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
         <v>75</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -1427,6 +1510,7 @@
     <hyperlink ref="E17" r:id="rId30" xr:uid="{B82C801A-DC3A-453E-87BF-F868D137D05D}"/>
     <hyperlink ref="D20" r:id="rId31" xr:uid="{4FB63F1B-2DE9-4653-BFA8-CEC3DFE01832}"/>
     <hyperlink ref="D21" r:id="rId32" xr:uid="{A2F67897-1933-4119-ABF3-991879B6573D}"/>
+    <hyperlink ref="D23" r:id="rId33" xr:uid="{1BAFD4C2-58E5-4806-A13D-70F0C1F9BC16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
